--- a/Library/bin/Debug/Resources/Admins.xlsx
+++ b/Library/bin/Debug/Resources/Admins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\Library\Library\bin\Debug\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grynia\Desktop\Program\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0E8AE2-13C9-4A39-BD29-CEB6142A4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB1B7EC7-BC7B-4125-8906-DB1B3B528861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{51F3A2FA-A358-4E6E-A601-AF85B68A041B}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{D652EA4B-8E00-45C4-8E06-A17AF4014F8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -388,14 +388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDD87CF-BB14-446D-9B34-34CBE62D3B95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9B86CD-A8B0-453C-8786-1A4A642D5554}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
